--- a/biology/Médecine/Benzilate_de_3-quinuclidinyle/Benzilate_de_3-quinuclidinyle.xlsx
+++ b/biology/Médecine/Benzilate_de_3-quinuclidinyle/Benzilate_de_3-quinuclidinyle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Surnommé Ladder (échelle) aux États-Unis, le gaz BZ ou benzilate de 3-quinuclidinyle est un agent incapacitant anticholinergique bloquant l'action de l'acétylcholine dans le système nerveux. C'est une substance toxicologique non létale étudiée dans le cadre d'un programme de recherche par les forces armées des États-Unis. Les stocks américains ont été détruits en 1988[réf. nécessaire].
@@ -515,11 +527,13 @@
           <t>Utilisations suspectées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1998, des rumeurs[réf. nécessaire] ont couru sur l'utilisation de cette substance provoquant des hallucinations et un comportement irrationnels par l'armée yougoslave durant la guerre de Bosnie en 1995.
-En décembre 2012, d'autres rumeurs ont circulé[2],[3]
-quant à l'utilisation de cet agent incapacitant lors de l'assaut la veille de Noël à Homs[4] par l'armée syrienne.
+En décembre 2012, d'autres rumeurs ont circulé,
+quant à l'utilisation de cet agent incapacitant lors de l'assaut la veille de Noël à Homs par l'armée syrienne.
 </t>
         </is>
       </c>
